--- a/data/outputs/Final_Evaluation.xlsx
+++ b/data/outputs/Final_Evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Failure Reason</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>AI Explanation</t>
         </is>
       </c>
@@ -509,7 +514,8 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>VERDICT: PASS</t>
         </is>
@@ -545,7 +551,8 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>VERDICT: PASS</t>
         </is>
@@ -583,6 +590,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>The submission does not include any mandatory hashtags as required.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>VERDICT: FAIL</t>
         </is>
       </c>
@@ -617,7 +629,8 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>VERDICT: PASS</t>
         </is>
@@ -649,7 +662,8 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>VERDICT: PASS</t>
         </is>
